--- a/mainexcel/squad4/Мр-22-2.xlsx
+++ b/mainexcel/squad4/Мр-22-2.xlsx
@@ -172,6 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -715,23 +716,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="13.140625"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375"/>
+    <col min="5" max="5" customWidth="true" style="2" width="14.7109375"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.85546875"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375"/>
+    <col min="11" max="11" customWidth="true" style="2" width="16.140625"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="15.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="16.0"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375"/>
+    <col min="17" max="17" customWidth="true" style="2" width="16.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1826,135 +1827,92 @@
   </sheetData>
   <mergeCells count="130">
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="M44:M45"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N43:P43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="G38:G39"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="M35:Q35"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="M38:M39"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A38:A39"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="G36:G37"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="N31:Q31"/>
     <mergeCell ref="N32:P32"/>
-    <mergeCell ref="M31:M32"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:J32"/>
-    <mergeCell ref="G31:G32"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="M26:Q26"/>
     <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:M30"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="M21:M22"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
